--- a/medicine/Mort/Cimetière_Saint-Sever/Cimetière_Saint-Sever.xlsx
+++ b/medicine/Mort/Cimetière_Saint-Sever/Cimetière_Saint-Sever.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Sever</t>
+          <t>Cimetière_Saint-Sever</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Saint-Sever est un cimetière de la ville de Rouen, situé sur les communes de Petit-Quevilly et Grand-Quevilly. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Sever</t>
+          <t>Cimetière_Saint-Sever</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cimetière localisé à proximité de l'église Saint-Sever jusqu'en 1776, il est délocalisé une première fois au niveau de l'actuelle église Saint-Clément. La ville se développant, il est une nouvelle fois déplacé au sud du jardin des plantes en 1856 avant de trouver sa localisation actuelle en 1906-1907. Le cimetière est ouvert le 1er août 1909[1]. L'ancien cimetière ferme le 31 juillet 1920.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cimetière localisé à proximité de l'église Saint-Sever jusqu'en 1776, il est délocalisé une première fois au niveau de l'actuelle église Saint-Clément. La ville se développant, il est une nouvelle fois déplacé au sud du jardin des plantes en 1856 avant de trouver sa localisation actuelle en 1906-1907. Le cimetière est ouvert le 1er août 1909. L'ancien cimetière ferme le 31 juillet 1920.
 Le cimetière accueille le monument aux morts de la ville de Rouen dû à Georges Lisch et Raoul Verlet inauguré le 11 novembre 1924. Trop éloigné du centre-ville, Rouen a érigé un second monument, le monument de la Victoire, aujourd'hui place Carnot.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Sever</t>
+          <t>Cimetière_Saint-Sever</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Cimetière militaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une zone du cimetière est réservée aux tombes des soldats français et britanniques de la Première Guerre mondiale.
 Le cimetière britannique comporte 11 436 tombes de soldats des différents pays formant alors le Commonwealth. C'est le plus important cimetière militaire britannique de la Première Guerre mondiale en France.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Saint-Sever</t>
+          <t>Cimetière_Saint-Sever</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités enterrées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Octave Crutel (1879-1961), médecin, député, résistant et déporté
 Robert Diochon (1883-1953), footballeur, cofondateur du FCR
